--- a/stccg/Deck building/Statistics_helpers.xlsx
+++ b/stccg/Deck building/Statistics_helpers.xlsx
@@ -144,7 +144,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_-;\-* #,##0.00\ _k_r_-;_-* &quot;-&quot;??\ _k_r_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0\ _k_r_-;\-* #,##0\ _k_r_-;_-* &quot;-&quot;??\ _k_r_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _k_r_-;\-* #,##0\ _k_r_-;_-* &quot;-&quot;??\ _k_r_-;_-@_-"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -278,7 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -4108,7 +4108,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4132,7 +4132,7 @@
         <v>37</v>
       </c>
       <c r="I2">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="I5" s="15">
         <f>$I$2*H5</f>
-        <v>9.4</v>
+        <v>9.2000000000000011</v>
       </c>
       <c r="J5">
         <f>ROUND(I5,0)</f>
@@ -4204,7 +4204,7 @@
       </c>
       <c r="I6" s="15">
         <f t="shared" ref="I6:I10" si="0">$I$2*H6</f>
-        <v>9.4</v>
+        <v>9.2000000000000011</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:J10" si="1">ROUND(I6,0)</f>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="I7" s="15">
         <f t="shared" si="0"/>
-        <v>8.4599999999999991</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
@@ -4254,11 +4254,11 @@
       </c>
       <c r="I8" s="15">
         <f t="shared" si="0"/>
-        <v>7.5200000000000005</v>
+        <v>7.36</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4279,11 +4279,11 @@
       </c>
       <c r="I9" s="15">
         <f t="shared" si="0"/>
-        <v>6.580000000000001</v>
+        <v>6.44</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="I10" s="15">
         <f t="shared" si="0"/>
-        <v>6.11</v>
+        <v>5.98</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
@@ -4321,11 +4321,11 @@
       </c>
       <c r="I12" s="23">
         <f>SUM(I5:I10)</f>
-        <v>47.47</v>
+        <v>46.459999999999994</v>
       </c>
       <c r="J12" s="23">
         <f>SUM(J5:J10)</f>
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
